--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606020.2158031033</v>
+        <v>-610159.92221706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12396565.26115936</v>
+        <v>12393615.36420727</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.1397389433016</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>271.6698254546828</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.3146023933194</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -786,10 +786,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>26.96566453630948</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>116.8763835457721</v>
       </c>
       <c r="C4" t="n">
-        <v>50.96573088442614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>327.861332939756</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7.075320216018644</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>35.1368592263306</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>146.7241636811965</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.6053634112915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>23.64335052785796</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>307.918483994059</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>145.9951119230965</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>137.5464483871281</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>151.752679362361</v>
       </c>
       <c r="W11" t="n">
-        <v>134.4164472696531</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74.5699956553341</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>119.3981140919877</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>284.8945501208465</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>114.0927119716332</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,7 +1670,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>59.97638471239311</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>63.4763532328274</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277653</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>458.6475467930354</v>
+        <v>1113.064217000459</v>
       </c>
       <c r="C2" t="n">
-        <v>65.47204529596598</v>
+        <v>1113.064217000459</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596598</v>
+        <v>727.6230882171269</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596598</v>
+        <v>325.0395633336714</v>
       </c>
       <c r="F2" t="n">
-        <v>52.6180108663478</v>
+        <v>50.62559822793123</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>936.6744981739575</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697129</v>
+        <v>1450.277176783646</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964324</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964324</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.276500964324</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="W2" t="n">
-        <v>1599.277465932611</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.824860865668</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="Y2" t="n">
-        <v>813.3341517862693</v>
+        <v>1113.064217000459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653889</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1552.274689874029</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2065.877368483717</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535685</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214327</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585394</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.21485871868</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068692</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641441995</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1666.232116796296</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="C4" t="n">
-        <v>1614.751580549401</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="D4" t="n">
-        <v>1614.751580549401</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="E4" t="n">
-        <v>1459.192768408603</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F4" t="n">
-        <v>1459.192768408603</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G4" t="n">
-        <v>1459.192768408603</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>1303.714217370097</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370097</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306141</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179941</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518205</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549414</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591122</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.3607733677</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737752</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>1889.344177979652</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>1889.344177979652</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>1889.344177979652</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="X4" t="n">
-        <v>1889.344177979652</v>
+        <v>159.5601998328759</v>
       </c>
       <c r="Y4" t="n">
-        <v>1666.232116796296</v>
+        <v>159.5601998328759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1729.148522214888</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1202.733504313869</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477965</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>423.0718195642692</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>936.6744981739575</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1450.277176783646</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737752</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2129.643267926285</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>2129.643267926285</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="V5" t="n">
-        <v>2129.643267926285</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="W5" t="n">
-        <v>2129.643267926285</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="X5" t="n">
-        <v>2129.643267926285</v>
+        <v>1595.909005810938</v>
       </c>
       <c r="Y5" t="n">
-        <v>2129.643267926285</v>
+        <v>1595.909005810938</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>885.6388105817865</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817865</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.89759559188</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182861</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413235</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.1700734452587</v>
+        <v>485.6350352985641</v>
       </c>
       <c r="C7" t="n">
-        <v>502.1700734452587</v>
+        <v>485.6350352985641</v>
       </c>
       <c r="D7" t="n">
-        <v>502.1700734452587</v>
+        <v>485.6350352985641</v>
       </c>
       <c r="E7" t="n">
-        <v>502.1700734452587</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="F7" t="n">
-        <v>344.8441386582316</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>670.8430539898654</v>
       </c>
       <c r="X7" t="n">
-        <v>710.8623597192905</v>
+        <v>670.8430539898654</v>
       </c>
       <c r="Y7" t="n">
-        <v>502.1700734452587</v>
+        <v>670.8430539898654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.354413709946</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>899.6156178475343</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V8" t="n">
-        <v>1943.38222045283</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.383185421117</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X8" t="n">
-        <v>1261.354413709946</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="Y8" t="n">
-        <v>1261.354413709946</v>
+        <v>1039.58945324146</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.7827801248735</v>
+        <v>401.5041063167936</v>
       </c>
       <c r="C10" t="n">
-        <v>194.7827801248735</v>
+        <v>401.5041063167936</v>
       </c>
       <c r="D10" t="n">
-        <v>194.7827801248735</v>
+        <v>401.5041063167936</v>
       </c>
       <c r="E10" t="n">
-        <v>194.7827801248735</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="F10" t="n">
-        <v>194.7827801248735</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
-        <v>194.7827801248735</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>379.9907988161747</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>379.9907988161747</v>
+        <v>809.8241861914515</v>
       </c>
       <c r="Y10" t="n">
-        <v>379.9907988161747</v>
+        <v>586.7121250080949</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.148693143102</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.769466792226</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D11" t="n">
-        <v>815.1246131550879</v>
+        <v>711.7339944900339</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550879</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723526</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.197927562259</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X11" t="n">
-        <v>2103.54159764151</v>
+        <v>2000.150978976455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1778.847163708305</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.7345522742331</v>
+        <v>389.4254956545558</v>
       </c>
       <c r="C13" t="n">
-        <v>306.7345522742331</v>
+        <v>291.0166528667388</v>
       </c>
       <c r="D13" t="n">
-        <v>306.7345522742331</v>
+        <v>207.1798149154474</v>
       </c>
       <c r="E13" t="n">
-        <v>222.9720152796295</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="F13" t="n">
-        <v>137.4423556387964</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4423556387964</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>793.964469812792</v>
+        <v>872.8795642628194</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901635</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="X13" t="n">
-        <v>420.1462958193405</v>
+        <v>540.7412816917185</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.1462958193405</v>
+        <v>389.4254956545558</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1933.074922904802</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>930.3697767627987</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>930.3697767627987</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>585.2716134389702</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>243.9051330731674</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873814</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723526</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838007</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2257.769356838007</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.074922904802</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5358,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>402.0464364576247</v>
+        <v>387.394170518808</v>
       </c>
       <c r="C16" t="n">
-        <v>303.6375936698079</v>
+        <v>387.394170518808</v>
       </c>
       <c r="D16" t="n">
-        <v>303.6375936698079</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="E16" t="n">
-        <v>219.8750566752043</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1384.045720813084</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1220.122944127512</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1220.122944127512</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915625</v>
+        <v>1025.93987409453</v>
       </c>
       <c r="W16" t="n">
-        <v>677.7422270735552</v>
+        <v>814.4057471719012</v>
       </c>
       <c r="X16" t="n">
-        <v>515.4581800027321</v>
+        <v>652.1217001010782</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.4581800027321</v>
+        <v>500.8059140639154</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099308</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,22 +5777,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222399</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960397</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343037</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879416</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924207</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6017,22 +6017,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.202330875214</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369574</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072683</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984009</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6209,46 +6209,46 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>556.9309448458636</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N27" t="n">
-        <v>1297.817576692272</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1814.337859283253</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2219.95922799965</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
@@ -6376,58 +6376,58 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958361</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>468.1643128146575</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>468.1643128146575</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2658.65634142638</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>808.4417674487537</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.362800625417</v>
+        <v>1464.219738659313</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>1980.740021250294</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777736</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>526.0564146786434</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169074</v>
+        <v>575.835310929162</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775186</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543965</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320543</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7017,13 +7017,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
         <v>1458.313011372373</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7339,7 +7339,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
@@ -7348,10 +7348,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7421,7 +7421,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,28 +7430,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>346.0196676966397</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0196676966397</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343048</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N43" t="n">
-        <v>683.142663665514</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072221</v>
+        <v>845.8474307072208</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>965.7235964837994</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7731,19 +7731,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>346.0196676966397</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>973.7913173233209</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1629.56928853388</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222421</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>409.5242301737496</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115937</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562882</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886045</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>96.46212172154287</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>392.5600888204943</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115937</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>503.4836023165926</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886045</v>
+        <v>371.6235108961539</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0581217063165</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,22 +8766,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,16 +9726,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>550.900652917313</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012156</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>264.4640783312022</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>374.1267046741211</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>684.2495388215578</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,16 +10665,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>295.3946671166309</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,13 +11136,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>262.1075997502998</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11157,7 +11157,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,22 +11379,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>115.8547494464239</v>
       </c>
       <c r="W11" t="n">
-        <v>161.7942850170104</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>8.275457478054907</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>41.26309250812707</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>33.27088396652022</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.6711955628091</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362792</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>69.73322587215107</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>145.9424324205748</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.688691965331182e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1082241.922956774</v>
+        <v>1080738.053922373</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1082241.922956774</v>
+        <v>1080738.053922373</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972867.8984798668</v>
+        <v>972867.8984798667</v>
       </c>
     </row>
     <row r="7">
@@ -26320,16 +26320,16 @@
         <v>234431.8315213638</v>
       </c>
       <c r="E2" t="n">
+        <v>207166.7304517205</v>
+      </c>
+      <c r="F2" t="n">
         <v>207166.7304517206</v>
       </c>
-      <c r="F2" t="n">
-        <v>207166.7304517205</v>
-      </c>
       <c r="G2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213639</v>
       </c>
       <c r="H2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213639</v>
       </c>
       <c r="I2" t="n">
         <v>234431.8315213638</v>
@@ -26338,10 +26338,10 @@
         <v>234431.831521364</v>
       </c>
       <c r="K2" t="n">
-        <v>234431.8315213641</v>
+        <v>234431.831521364</v>
       </c>
       <c r="L2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213639</v>
       </c>
       <c r="M2" t="n">
         <v>234431.8315213639</v>
@@ -26353,7 +26353,7 @@
         <v>234431.8315213638</v>
       </c>
       <c r="P2" t="n">
-        <v>234431.8315213637</v>
+        <v>234431.8315213638</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728538</v>
+        <v>62456.24177539671</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277132</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
+        <v>138605.9604845214</v>
+      </c>
+      <c r="F4" t="n">
         <v>138605.9604845213</v>
       </c>
-      <c r="F4" t="n">
-        <v>138605.9604845214</v>
-      </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,13 +26445,13 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="N4" t="n">
         <v>186364.8769761036</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761036</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-236012.0289594571</v>
+        <v>-231359.8093382821</v>
       </c>
       <c r="C6" t="n">
-        <v>-53807.08066760103</v>
+        <v>-57501.15230422698</v>
       </c>
       <c r="D6" t="n">
-        <v>-61551.66137122139</v>
+        <v>-69287.95059461315</v>
       </c>
       <c r="E6" t="n">
-        <v>-96747.81120668586</v>
+        <v>-96957.54275337553</v>
       </c>
       <c r="F6" t="n">
-        <v>15374.75026735864</v>
+        <v>15165.01872066917</v>
       </c>
       <c r="G6" t="n">
-        <v>-57528.14030694135</v>
+        <v>-57528.1403069412</v>
       </c>
       <c r="H6" t="n">
-        <v>-10102.81477025952</v>
+        <v>-10102.81477025919</v>
       </c>
       <c r="I6" t="n">
-        <v>-10102.81477025937</v>
+        <v>-10102.8147702593</v>
       </c>
       <c r="J6" t="n">
-        <v>-223144.7323675449</v>
+        <v>-216628.4472129718</v>
       </c>
       <c r="K6" t="n">
-        <v>-16342.58317304208</v>
+        <v>-16342.58317304217</v>
       </c>
       <c r="L6" t="n">
-        <v>-71525.17210766346</v>
+        <v>-75574.00931813564</v>
       </c>
       <c r="M6" t="n">
-        <v>-52303.6442298824</v>
+        <v>-53355.33924107044</v>
       </c>
       <c r="N6" t="n">
-        <v>-10102.81477025928</v>
+        <v>-10102.81477025946</v>
       </c>
       <c r="O6" t="n">
-        <v>-37870.50881303068</v>
+        <v>-37870.50881303082</v>
       </c>
       <c r="P6" t="n">
-        <v>-10102.81477025946</v>
+        <v>-10102.81477025916</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431646</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660672</v>
+        <v>78.07030221924589</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551372</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346416</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407216</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.35005931098135</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>141.0556686306392</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.96376870323229</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>148.2483091467711</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>66.47955495861621</v>
       </c>
       <c r="C4" t="n">
-        <v>117.5373358702445</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>53.72538455574289</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>214.1902762001588</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>185.177742386313</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,16 +27780,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>133.7729343669377</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.27557716023159</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>374.9143391067629</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>77.63959502221468</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28017,22 +28017,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.928653605024408</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>94.1930706077186</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.63600263452777</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29299,25 +29299,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901272</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,25 +29536,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000707</v>
+        <v>81.10808140893403</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566867</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>76.79385455031439</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045682</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668673</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634528836</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,34 +30852,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>259.7991785760223</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749732</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069763</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>9.378756902228218</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>239.3119190900026</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749732</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>413.4232554596744</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344379</v>
+        <v>286.2513980419873</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>497.9396303685323</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133774</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>458.2130940284241</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>315.4000036905431</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>259.4442692519037</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907923</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>284.5297693407877</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>598.8774259673912</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318503</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>525.5925267547203</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833539</v>
+        <v>75.16693519537662</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>264.9671660031063</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.4332024506093</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>205.7977317832976</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>172.5106644169664</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634527659</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873208</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133992</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,13 +38187,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
